--- a/INTELLIGENCE/VIS/VIS Intelligence Requirements.xlsx
+++ b/INTELLIGENCE/VIS/VIS Intelligence Requirements.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -19,42 +20,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="247">
-  <si>
-    <t>VIS Intelligence Requirements</t>
-  </si>
-  <si>
-    <t>Ref</t>
-  </si>
-  <si>
-    <t>Subref</t>
-  </si>
-  <si>
-    <t>VID Ref</t>
-  </si>
-  <si>
-    <t>Intelligence Requirement</t>
-  </si>
-  <si>
-    <t>Date Raised (pre)</t>
-  </si>
-  <si>
-    <t>Date Closed (post)</t>
-  </si>
-  <si>
-    <t>Conclusion</t>
-  </si>
-  <si>
-    <t>IR1</t>
-  </si>
-  <si>
-    <t>Location of 1st Corps Rocket Arty Bns</t>
-  </si>
-  <si>
-    <t>D0</t>
-  </si>
-  <si>
-    <t>D1.1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="274">
+  <si>
+    <t xml:space="preserve">VIS Intelligence Requirements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Updated:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> After D8</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VID Ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intelligence Requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Raised (pre)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Closed (post)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conclusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location of 1st Corps Rocket Arty Bns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1.1</t>
   </si>
   <si>
     <t xml:space="preserve">[OPAR-D0.1-108/109] - 11th DIV Rocket Arty Bn located at Gaziantep 
@@ -62,220 +86,220 @@
 [OPAR-D1.1-054] - 12th DIV Rocket Arty Bty located in support of main effort advance NE of Birecik Dam.  </t>
   </si>
   <si>
-    <t>IR2</t>
-  </si>
-  <si>
-    <t>Location of 2nd Corps Rocket Arty Bns</t>
-  </si>
-  <si>
-    <t>IR3</t>
-  </si>
-  <si>
-    <t>Location of 2nd Corps HQ and composition of air defence</t>
+    <t xml:space="preserve">IR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location of 2nd Corps Rocket Arty Bns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location of 2nd Corps HQ and composition of air defence</t>
   </si>
   <si>
     <t xml:space="preserve">[OPAR-D1.1-075] - HQ location confirmed at Taftanaz.  Protected by SA-15.  </t>
   </si>
   <si>
-    <t>IR4</t>
-  </si>
-  <si>
-    <t>Confirmation of 10th Armour DIV IVO Minakh, air defences in place and disposition of manoeuvre units</t>
-  </si>
-  <si>
-    <t>[OPAR-D0.1-086] - D0 - 10th DIV tanks observed staging at Minakh AB  
+    <t xml:space="preserve">IR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmation of 10th Armour DIV IVO Minakh, air defences in place and disposition of manoeuvre units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[OPAR-D0.1-086] - D0 - 10th DIV tanks observed staging at Minakh AB  
 [OPAR-D1.1-027 etc.] - D1.1 - 10th DIV tanks observed staging at Minakh and surrounding area.
 Believe HQ not yet located.  HQ destroyed on D1.1 believed to be 1st Corps HQ (see OPAR-D0.1-082 for location) but request confirmation.  See IR4.1</t>
   </si>
   <si>
-    <t>IR4.1</t>
-  </si>
-  <si>
-    <t>Request BDA on HQ at N36 31.275 E037 01.906</t>
-  </si>
-  <si>
-    <t>D1.2</t>
-  </si>
-  <si>
-    <t>IR5</t>
-  </si>
-  <si>
-    <t>Confirmation of 11th Mech DIV IVO Gaziantep, air defences in place and disposition of manoeuvre units</t>
-  </si>
-  <si>
-    <t>D3.2</t>
-  </si>
-  <si>
-    <t>[OPAR-D0.1-105/111/112/113] - DIV HQ located at Gaziantep Intl, protected by SA-11, SA-13, SA-15.  SA-8 also present protecting GRADs.
+    <t xml:space="preserve">IR4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request BDA on HQ at N36 31.275 E037 01.906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmation of 11th Mech DIV IVO Gaziantep, air defences in place and disposition of manoeuvre units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[OPAR-D0.1-105/111/112/113] - DIV HQ located at Gaziantep Intl, protected by SA-11, SA-13, SA-15.  SA-8 also present protecting GRADs.
 Manoeuvre units not yet observed in quantity - see IR5.1</t>
   </si>
   <si>
-    <t>IR5.1</t>
-  </si>
-  <si>
-    <t>Request search of high ground from FLOT to ~3NM behind, for ~15NM east and west of Gaziantep for BMP-2, SA-13, Gun Dish, Arty.  How are they arrayed?</t>
-  </si>
-  <si>
-    <t>Not found in numbers, but IR no longer as important.</t>
-  </si>
-  <si>
-    <t>IR6</t>
-  </si>
-  <si>
-    <t>Confirmation of 12th Mot DIV IVO Birecik, air defences in place and disposition of manoeuvre units</t>
-  </si>
-  <si>
-    <t>[OPAR-D0.1-122/125] - DIV HQ located near Birecik Dam, protected by SA-15, Gun Dish
+    <t xml:space="preserve">IR5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request search of high ground from FLOT to ~3NM behind, for ~15NM east and west of Gaziantep for BMP-2, SA-13, Gun Dish, Arty.  How are they arrayed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not found in numbers, but IR no longer as important.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmation of 12th Mot DIV IVO Birecik, air defences in place and disposition of manoeuvre units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[OPAR-D0.1-122/125] - DIV HQ located near Birecik Dam, protected by SA-15, Gun Dish
 [OPAR-D1.1-054] - Manoeuvre units appear to be advancing NE along roads.  Main Effort, supported by GRADs and their accompanying SA-8, located close to village of Yaylak.</t>
   </si>
   <si>
-    <t>IR7</t>
-  </si>
-  <si>
-    <t>Location of 21st Mech DIV and 22nd Mot DIV, and disposition of manoeuvre units</t>
-  </si>
-  <si>
-    <t>[OPAR-D1.1-065] - DIV HQ located in valley south of SE corner of Hatay plain, protected by SA-15
+    <t xml:space="preserve">IR7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location of 21st Mech DIV and 22nd Mot DIV, and disposition of manoeuvre units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[OPAR-D1.1-065] - DIV HQ located in valley south of SE corner of Hatay plain, protected by SA-15
 [OPAR-D1.1-061 to 071] - Screening units in pl strength at border.  Main force and disposition not definitively identified but suspected north of DIV HQ (arty spotted in this area)</t>
   </si>
   <si>
-    <t>IR8</t>
-  </si>
-  <si>
-    <t>Location of 1st Corps Air Defence DIV assets - 1 x SA-6 + 2 x SA-11</t>
-  </si>
-  <si>
-    <t>[OPAR-D1.1-056] - SA-11 at Minakh (destroyed D1.1)
+    <t xml:space="preserve">IR8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location of 1st Corps Air Defence DIV assets - 1 x SA-6 + 2 x SA-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[OPAR-D1.1-056] - SA-11 at Minakh (destroyed D1.1)
 [Taipan D1.1 AAR] - SA-6 at Minakh (launchers destroyed D1.1)
 [OPAR-D0.1-111] - SA-11 at Gaziantep</t>
   </si>
   <si>
-    <t>IR9</t>
-  </si>
-  <si>
-    <t>Location of IADs SAMs (SA-3, SA-6, SA-11)</t>
-  </si>
-  <si>
-    <t>IR too vague</t>
-  </si>
-  <si>
-    <t>IR10</t>
-  </si>
-  <si>
-    <t>Location of EWRs</t>
-  </si>
-  <si>
-    <t>Numerous approx locations found.  Closing IR and will replace with more specific IR if needed.</t>
-  </si>
-  <si>
-    <t>IR11</t>
-  </si>
-  <si>
-    <t>Confirm presence and origin of Syrian CAP</t>
-  </si>
-  <si>
-    <t>[RFI 2022-05-18] - 1-2 CAPs in daylight, 0-1 at night.  Believed from Abu al-Duhur(D) and Jirah (D+N)</t>
-  </si>
-  <si>
-    <t>IR12</t>
-  </si>
-  <si>
-    <t>Confirm presence and origin of Syrian QRA</t>
-  </si>
-  <si>
-    <t>Most recent intel (D3.1) showed CAP flying N from Tiyas, and QRA from Tabqa.</t>
-  </si>
-  <si>
-    <t>IR13</t>
-  </si>
-  <si>
-    <t>Confirm existance of Syrian/Russian AWACS</t>
-  </si>
-  <si>
-    <t>[RFI 2022-05-18] - Russian AWACS consistently flying surveillance in the Med (&gt;50% of days).  No clear pattern observed.
+    <t xml:space="preserve">IR9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location of IADs SAMs (SA-3, SA-6, SA-11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR too vague</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location of EWRs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerous approx locations found.  Closing IR and will replace with more specific IR if needed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm presence and origin of Syrian CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[RFI 2022-05-18] - 1-2 CAPs in daylight, 0-1 at night.  Believed from Abu al-Duhur(D) and Jirah (D+N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm presence and origin of Syrian QRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most recent intel (D3.1) showed CAP flying N from Tiyas, and QRA from Tabqa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm existance of Syrian/Russian AWACS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[RFI 2022-05-18] - Russian AWACS consistently flying surveillance in the Med (&gt;50% of days).  No clear pattern observed.
 No other AWACS observed</t>
   </si>
   <si>
-    <t>IR14</t>
-  </si>
-  <si>
-    <t>Confirm presence and type of air defence IVO Tartus</t>
-  </si>
-  <si>
-    <t>D4.1</t>
-  </si>
-  <si>
-    <t>SA-11 [OPAR-D4.1-010]</t>
-  </si>
-  <si>
-    <t>IR15</t>
-  </si>
-  <si>
-    <t>Confirm presence and type of air defence IVO Bassel Al-Assad Intl</t>
-  </si>
-  <si>
-    <t>D3.1</t>
-  </si>
-  <si>
-    <t>[OPAR-D0.1-134] - SA-10 IVO Bassel al-Assad Intl
+    <t xml:space="preserve">IR14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm presence and type of air defence IVO Tartus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA-11 [OPAR-D4.1-010]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm presence and type of air defence IVO Bassel Al-Assad Intl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[OPAR-D0.1-134] - SA-10 IVO Bassel al-Assad Intl
 [OPAR-D3.1-XXX] - SA-3 IVO Bassel al-Assad Intl</t>
   </si>
   <si>
-    <t>IR16</t>
-  </si>
-  <si>
-    <t>Location and routing of any support aircraft (IL76, AN26B)</t>
-  </si>
-  <si>
-    <t>[OPAR-D0.1-141] - IL-76 at Bassel al-Assad Intl
+    <t xml:space="preserve">IR16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location and routing of any support aircraft (IL76, AN26B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[OPAR-D0.1-141] - IL-76 at Bassel al-Assad Intl
 [OPAR-D0.1-089] - IL-76 landing at Minakh AB</t>
   </si>
   <si>
-    <t>IR17</t>
-  </si>
-  <si>
-    <t>Confirm presence and type of Russian or Syrian naval units at sea.</t>
-  </si>
-  <si>
-    <t>[OPAR-D0.1-137/142] - 2xNeustrashimy and 1xSubmarine reported at harbour.
+    <t xml:space="preserve">IR17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm presence and type of Russian or Syrian naval units at sea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[OPAR-D0.1-137/142] - 2xNeustrashimy and 1xSubmarine reported at harbour.
 [RFI 2022-05-18] - Syrian navy have had 1-2 naval ships patrolling in area shown with RFI (off NE point of Cyprus)
 [OPAR-D3.1-XXX] - see latest .cf Naval Intel layer.</t>
   </si>
   <si>
-    <t>IR18</t>
-  </si>
-  <si>
-    <t>Details on ease of scanning in different areas</t>
-  </si>
-  <si>
-    <t>Unlikely to get useful intel on this as it will depend on too many factors.</t>
-  </si>
-  <si>
-    <t>IR19</t>
-  </si>
-  <si>
-    <t>Are the remaining 2 Rezny Frigates still in port at Tartus? (2 seen there D0, 1 sunk D3.1)</t>
-  </si>
-  <si>
-    <t>D4.2</t>
-  </si>
-  <si>
-    <t>Yes - on D4.2 [SOCC Intrep D4]</t>
-  </si>
-  <si>
-    <t>IR20</t>
-  </si>
-  <si>
-    <t>Where is the remaining Molniya patrol boat? (2 damaged in port D3.1, 1 sunk D3.1, 1 heading south from Latakia D3.1)</t>
-  </si>
-  <si>
-    <t>D4.1 - 1 seen in harbour and one at sea NW of Tartus</t>
-  </si>
-  <si>
-    <t>IR21</t>
-  </si>
-  <si>
-    <t>Are the Russian vessels still in port at Tartus (2 x Neustrashimyy frigate, 1 x submarine)</t>
+    <t xml:space="preserve">IR18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details on ease of scanning in different areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlikely to get useful intel on this as it will depend on too many factors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the remaining 2 Rezny Frigates still in port at Tartus? (2 seen there D0, 1 sunk D3.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes - on D4.2 [SOCC Intrep D4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is the remaining Molniya patrol boat? (2 damaged in port D3.1, 1 sunk D3.1, 1 heading south from Latakia D3.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4.1 - 1 seen in harbour and one at sea NW of Tartus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the Russian vessels still in port at Tartus (2 x Neustrashimyy frigate, 1 x submarine)</t>
   </si>
   <si>
     <r>
@@ -292,236 +316,245 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>No Russians in port on D4.2 [SOCC INTREP D4]</t>
+      <t xml:space="preserve">No Russians in port on D4.2 [SOCC INTREP D4]</t>
     </r>
   </si>
   <si>
-    <t>IR22</t>
-  </si>
-  <si>
-    <t>Is Abu al Duhur abandoned?</t>
-  </si>
-  <si>
-    <t>No flights seen on D4, D5, D6, D7</t>
-  </si>
-  <si>
-    <t>IR23</t>
-  </si>
-  <si>
-    <t>Confirm Jirah AB is abandoned</t>
-  </si>
-  <si>
-    <t>IR24</t>
-  </si>
-  <si>
-    <t>Has the 5th Corps arrived at the front line from Palmyra?</t>
-  </si>
-  <si>
-    <t>No - but may do soon.  [VID INTSUM D4] - keep open and look for signs
+    <t xml:space="preserve">IR22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Abu al Duhur abandoned?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No flights seen on D4, D5, D6, D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm Jirah AB is abandoned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the 5th Corps arrived at the front line from Palmyra?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No - but may do soon.  [VID INTSUM D4] - keep open and look for signs
 D6 requested SOF team to recon 5th corp army base</t>
   </si>
   <si>
-    <t>IR24.1</t>
-  </si>
-  <si>
-    <t>Is the 12th Mot DIV continuing attack NW or NE?</t>
-  </si>
-  <si>
-    <t>Likely preparing for further attacks to NE - based on D4.1 reported positions.  Disposition not known.</t>
-  </si>
-  <si>
-    <t>IR24.2</t>
-  </si>
-  <si>
-    <t>Are the 4 x SA-15 from 10th Armour DIV still at Minakh?</t>
-  </si>
-  <si>
-    <t>Still at Minakh - [OPAR-D4.2-002]</t>
-  </si>
-  <si>
-    <t>IR24.3</t>
-  </si>
-  <si>
-    <t>Are there still 3 armoured bridgades IVO Minakh?</t>
-  </si>
-  <si>
-    <t>IR24.4</t>
-  </si>
-  <si>
-    <t>Is there more than 1 x SA-8 IVO Attaturk Dam?</t>
-  </si>
-  <si>
-    <t>No - now 0 in this area.  Final SA-8 destroyed D4.1 [OPAR-D4.1-025].  No SA-8s reported D4.2 by NINJA flight</t>
-  </si>
-  <si>
-    <t>IR24.5</t>
-  </si>
-  <si>
-    <t>Are there motorised units IVO Minakh or Gaziantep?</t>
-  </si>
-  <si>
-    <t>No motorised units seen D4.2.</t>
-  </si>
-  <si>
-    <t>IR24.6</t>
-  </si>
-  <si>
-    <t>Are there Mechanised units IVO Attaturk Dam?</t>
-  </si>
-  <si>
-    <t>None seen D4.2</t>
-  </si>
-  <si>
-    <t>IR24.7</t>
-  </si>
-  <si>
-    <t>Are some or all of 2 x SA-11 and 1 x SA-6 located within approx 50km of the FLOT, away from strategic targets?</t>
-  </si>
-  <si>
-    <t>None seen D4.1 or D4.2.  Likely all SA-6 and SA-11 are further south</t>
-  </si>
-  <si>
-    <t>IR25</t>
-  </si>
-  <si>
-    <t>Is the SA-6 in the north of IADS Sector East part of the IADS or army?  (see IR24.7)</t>
-  </si>
-  <si>
-    <t>Assess IADS - 5th Corps assessed still in Palmyra on D4</t>
-  </si>
-  <si>
-    <t>IR26</t>
-  </si>
-  <si>
-    <t>Is the SA-11 in the north of IADS Sector East part of the IADS or army? (see IR24.7)</t>
-  </si>
-  <si>
-    <t>IR27</t>
-  </si>
-  <si>
-    <t>Has the 10th DIV moved from Minakh, or detatched a brigade? (see IR24.2, IR24.3)</t>
-  </si>
-  <si>
-    <t>Assess that detatched Bde is most likely - still tanks at Minakh [OPAR-D4.2-010]
+    <t xml:space="preserve">IR24.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the 12th Mot DIV continuing attack NW or NE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likely preparing for further attacks to NE - based on D4.1 reported positions.  Disposition not known.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR24.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the 4 x SA-15 from 10th Armour DIV still at Minakh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still at Minakh - [OPAR-D4.2-002]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR24.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there still 3 armoured bridgades IVO Minakh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR24.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there more than 1 x SA-8 IVO Attaturk Dam?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No - now 0 in this area.  Final SA-8 destroyed D4.1 [OPAR-D4.1-025].  No SA-8s reported D4.2 by NINJA flight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR24.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there motorised units IVO Minakh or Gaziantep?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No motorised units seen D4.2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR24.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there Mechanised units IVO Attaturk Dam?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None seen D4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR24.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are some or all of 2 x SA-11 and 1 x SA-6 located within approx 50km of the FLOT, away from strategic targets?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, see IR35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the SA-6 in the north of IADS Sector East part of the IADS or army?  (see IR24.7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assess IADS - 5th Corps assessed still in Palmyra on D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the SA-11 in the north of IADS Sector East part of the IADS or army? (see IR24.7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the 10th DIV moved from Minakh, or detatched a brigade? (see IR24.2, IR24.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assess that detatched Bde is most likely - still tanks at Minakh [OPAR-D4.2-010]
 (moving units on D4.2 - moving north along road - could indicate preparation for counterattack on Gaziantep)</t>
   </si>
   <si>
-    <t>IR28</t>
-  </si>
-  <si>
-    <t>Where is the SA-2 previously at Jirah AB being moved to?</t>
-  </si>
-  <si>
-    <t>IR28.1</t>
-  </si>
-  <si>
-    <t>Has the SA-2 from Jirah been moved to Palmyra?</t>
-  </si>
-  <si>
-    <t>D5.1</t>
-  </si>
-  <si>
-    <t>IR29</t>
-  </si>
-  <si>
-    <t>Are the SA-3s supporting SA-2 previously at Jirah AB also moving?</t>
-  </si>
-  <si>
-    <t>IR30</t>
-  </si>
-  <si>
-    <t>Have Silkworm missiles arrived at Lebanon?</t>
-  </si>
-  <si>
-    <t>IR31</t>
-  </si>
-  <si>
-    <t>VID_IR_1
+    <t xml:space="preserve">IR28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is the SA-2 previously at Jirah AB being moved to?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outdated IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR28.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the SA-2 from Jirah been moved to Palmyra?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the SA-3s supporting SA-2 previously at Jirah AB also moving?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have Silkworm missiles arrived at Lebanon?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VID_IR_1
 VID_IR_2</t>
   </si>
   <si>
-    <t>What is the status and disposition of Syrian Scud units and readiness for conducting WMD attacks?</t>
-  </si>
-  <si>
-    <t>922nd assessed at alert level 1 - dispersed to into hiding places.  [VID INTSUM D4, confirmed by SOCC INTSUM D4]
+    <t xml:space="preserve">What is the status and disposition of Syrian Scud units and readiness for conducting WMD attacks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">922nd assessed at alert level 1 - dispersed to into hiding places.  [VID INTSUM D4, confirmed by SOCC INTSUM D4]
 923rd/924th assessed at alert 2, still in base. [VID INTSUM D4]</t>
   </si>
   <si>
-    <t>IR31.1</t>
-  </si>
-  <si>
-    <t>What is the status of units at the Scud regimental base in Aleppo?</t>
-  </si>
-  <si>
-    <t>IR31.2</t>
-  </si>
-  <si>
-    <t>Is there any activity at the Rocket Fuel Factory in Aleppo?</t>
-  </si>
-  <si>
-    <t>NSTR D4 [SOCC INSTUM D4]
+    <t xml:space="preserve">IR31.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the status of units at the Scud regimental base in Aleppo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR31.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there any activity at the Rocket Fuel Factory in Aleppo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSTR D4 [SOCC INSTUM D4]
 Some activity reported on D6 intsum, no vehicles</t>
   </si>
   <si>
-    <t>IR32</t>
-  </si>
-  <si>
-    <t>VID_IR_6</t>
-  </si>
-  <si>
-    <t>What Russian forces are present at Tartus or Bassel Al-Assad?</t>
-  </si>
-  <si>
-    <t>4 x MiG-29, 2 x IL76 - [OPAR-D4.1-009]</t>
-  </si>
-  <si>
-    <t>IR32.1</t>
-  </si>
-  <si>
-    <t>What Russian forces are present at Tartus?</t>
-  </si>
-  <si>
-    <t>KILO could still be there, but frigates have left [SOCC INSTUM D4]</t>
-  </si>
-  <si>
-    <t>IR32.2</t>
-  </si>
-  <si>
-    <t>What Russian forces are present at Bassel Al-Assad?</t>
-  </si>
-  <si>
-    <t>IR33</t>
-  </si>
-  <si>
-    <t>VID_IR_8</t>
-  </si>
-  <si>
-    <t>Are Russian aircraft operating out of Egypt?  What and how?</t>
-  </si>
-  <si>
-    <t>Yes - Tu-22s, A-50 and LIKELY Su-24.  Also Tu-142. [OPAR D4.2-</t>
-  </si>
-  <si>
-    <t>IR34</t>
-  </si>
-  <si>
-    <t>Is there a backup SCC in the Western IADS sector?</t>
-  </si>
-  <si>
-    <t>LIKELY no backup SCC [OPAR-D4.2-033]</t>
-  </si>
-  <si>
-    <t>IR35</t>
-  </si>
-  <si>
-    <t>Where are the 5th Corps Divisions deploying?</t>
+    <t xml:space="preserve">IR32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VID_IR_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Russian forces are present at Tartus or Bassel Al-Assad?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 x MiG-29, 2 x IL76 - [OPAR-D4.1-009]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR32.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Russian forces are present at Tartus?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILO could still be there, but frigates have left [SOCC INSTUM D4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR32.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Russian forces are present at Bassel Al-Assad?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VID_IR_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are Russian aircraft operating out of Egypt?  What and how?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes - Tu-22s, A-50 and LIKELY Su-24.  Also Tu-142. [OPAR D4.2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there a backup SCC in the Western IADS sector?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIKELY no backup SCC [OPAR-D4.2-033]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where are the 5th Corps Divisions deploying?</t>
   </si>
   <si>
     <r>
@@ -532,7 +565,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>D6 request for SOF team to take up recon position overlooking 5</t>
+      <t xml:space="preserve">D6 request for SOF team to take up recon position overlooking 5</t>
     </r>
     <r>
       <rPr>
@@ -543,7 +576,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -557,299 +590,359 @@
     </r>
   </si>
   <si>
-    <t>IR35.1</t>
-  </si>
-  <si>
-    <t>Are there SA-6 or SA-11 within 50km of the FLOT?  If so, where?</t>
-  </si>
-  <si>
-    <t>YES, Both SA-6 and SA-11 observed IVO Kharab Ishk [D8.2-30]</t>
-  </si>
-  <si>
-    <t>IR35.2</t>
-  </si>
-  <si>
-    <t>Are there MBTs or SA-19s located near Hatay to the south or east (apart from IVO Minakh)?</t>
-  </si>
-  <si>
-    <t>IR35.3</t>
-  </si>
-  <si>
-    <t>Are there BMP-2 or SA-13 located with 12th DIV near Birecik or Attaturk dam?</t>
-  </si>
-  <si>
-    <t>IR35.4</t>
-  </si>
-  <si>
-    <t>Are there SA-8 located IVO Birecik or Attaturk dam?</t>
-  </si>
-  <si>
-    <t>IR35.5</t>
-  </si>
-  <si>
-    <t>How many SA-15s/SA-8s are located at Gaziantep? D5 to D8</t>
-  </si>
-  <si>
-    <t>IR35.6</t>
-  </si>
-  <si>
-    <t>How many SA-15s/SA-8s are located at Minakh? D5 to D8</t>
-  </si>
-  <si>
-    <t>IR35.7</t>
-  </si>
-  <si>
-    <t>How many SA-15s are located at Birecik dam? D5 to D8</t>
-  </si>
-  <si>
-    <t>IR35.8</t>
-  </si>
-  <si>
-    <t>How many SA-15s/SA-8s are located south of Hatay? D5 to D8</t>
-  </si>
-  <si>
-    <t>IR35.9</t>
-  </si>
-  <si>
-    <t>How many SA-15s/SA-8s are located IVO Taftanaz? D5 to D8</t>
-  </si>
-  <si>
-    <t>IR35.10</t>
-  </si>
-  <si>
-    <t>Are any SA-15s/SA-8s located within 50km of the FLOT but not IVO south of Hatay, Taftanaz, Minakh, Gaziantep or Birecik Dam? D5 to D8</t>
-  </si>
-  <si>
-    <t>YES SA-15 reported ivo the SA-6/SA-11 site IVO Kharab Ishk [D8.2-30]</t>
-  </si>
-  <si>
-    <t>IR35.11</t>
-  </si>
-  <si>
-    <t>Are there enemy SAMs located IVO Kharab Ishk?</t>
-  </si>
-  <si>
-    <t>IR35.12</t>
-  </si>
-  <si>
-    <t>Are there enemy SAMs located IVO Tal Siman?</t>
-  </si>
-  <si>
-    <t>POSSIBLY See reporting of D8.2-6</t>
-  </si>
-  <si>
-    <t>IR35.13</t>
-  </si>
-  <si>
-    <t>Are there enemy SAMs located IVO Aleppo Intl?</t>
-  </si>
-  <si>
-    <t>IR35.14</t>
-  </si>
-  <si>
-    <t>Is any enemy rotary wing activity observed within 200km of FLOT? D5 to D8</t>
-  </si>
-  <si>
-    <t>No radar (AWACS) RW activity seen on D4, D5 and D6</t>
-  </si>
-  <si>
-    <t>IR35.15</t>
-  </si>
-  <si>
-    <t>Is any fixed wing activity observed into or out of front-line airfields (Kharab Ishk, Aleppo Int, Kuweires, Tal Siman?  These may be possible staging points for Corps or Divisions.</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>None seen by AWACS on D4, D5 and D6</t>
-  </si>
-  <si>
-    <t>IR35.16</t>
-  </si>
-  <si>
-    <t>What military traffic is observed travelling close to SoF positions in Aleppo - esp. BRDM-2 or ARV MTLB-U BOMAN on D5, larger formations D5.2 onwards.  Report strength, type and direction of travel.</t>
-  </si>
-  <si>
-    <t>IR36</t>
-  </si>
-  <si>
-    <t>Are the MiG-29s now located at Palmyra night-capable?</t>
-  </si>
-  <si>
-    <t>IR37</t>
-  </si>
-  <si>
-    <t>Are the MiG-29s now located at Palmyra engaging in CAP or QRA?</t>
-  </si>
-  <si>
-    <t>Not seen on D5 or D6. D7 saw Escort flights from Palmyra escorting SU-24s</t>
-  </si>
-  <si>
-    <t>IR38</t>
-  </si>
-  <si>
-    <t>What units are present on the eastern side of the Euphrates river KB BD/BE? Disposition and composition.</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>IR39</t>
-  </si>
-  <si>
-    <t>Which EWRs and SAM units are located in south part of SCC East/West and North part of SCC South?</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>IR39.1</t>
-  </si>
-  <si>
-    <t>EWRs and SAMs IVO SYTGT076?</t>
-  </si>
-  <si>
-    <t>IR39.2</t>
-  </si>
-  <si>
-    <t>EWRs/SAMs IVO Shayrat AB?</t>
-  </si>
-  <si>
-    <t>IR39.3</t>
-  </si>
-  <si>
-    <t>EWRs/SAMs IVO TIyas AB</t>
-  </si>
-  <si>
-    <t>IR39.4</t>
-  </si>
-  <si>
-    <t>EWRs/SAMs IVO Palmyra AB</t>
-  </si>
-  <si>
-    <t>IR40</t>
-  </si>
-  <si>
-    <t>What enemy activity is present at Al Qusayr AB?</t>
-  </si>
-  <si>
-    <t>IR41</t>
-  </si>
-  <si>
-    <t>Is there another SA-10 “Grumble” active in Syria near Tabqa / Killbox CE?</t>
-  </si>
-  <si>
-    <t>As of D8, likely no [D8.2-30]</t>
-  </si>
-  <si>
-    <t>IR42</t>
-  </si>
-  <si>
-    <t>IR42.1</t>
-  </si>
-  <si>
-    <t>What types of aircraft routinely patrol the eastern MED?</t>
-  </si>
-  <si>
-    <t>IR42.2</t>
-  </si>
-  <si>
-    <t>What flag do these aircrafts fly under?</t>
-  </si>
-  <si>
-    <t>IR43</t>
-  </si>
-  <si>
-    <t>What ships comprise the Russian SAG(s)?</t>
-  </si>
-  <si>
-    <t>IR44</t>
-  </si>
-  <si>
-    <t>What ships comprise the Chinese SAG(s)?</t>
-  </si>
-  <si>
-    <t>IR45</t>
-  </si>
-  <si>
-    <t>IR45.1</t>
-  </si>
-  <si>
-    <t>EWRs/SAMs IVO Kuweires?</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>IR46</t>
-  </si>
-  <si>
-    <t>IR46.1</t>
-  </si>
-  <si>
-    <t>Number of remaining aircraft at Tabqa?</t>
-  </si>
-  <si>
-    <t>IR46.2</t>
-  </si>
-  <si>
-    <t>State of runways and repair efforts</t>
-  </si>
-  <si>
-    <t>IR47</t>
-  </si>
-  <si>
-    <t>IR47.1</t>
-  </si>
-  <si>
-    <t>Determine number and type of aircraft at Tiyas AB.</t>
-  </si>
-  <si>
-    <t>IR47.2</t>
-  </si>
-  <si>
-    <t>Determine number and type of aircraft at Palmyra AB.</t>
-  </si>
-  <si>
-    <t>IR48</t>
-  </si>
-  <si>
-    <t>Determine strength and composition of Russian forces at Bassel Al-Assad AB.</t>
-  </si>
-  <si>
-    <t>IR49</t>
-  </si>
-  <si>
-    <t>Determine strength and composition of Chinese/Russian forces at Beirut airport.</t>
-  </si>
-  <si>
-    <t>IR50</t>
-  </si>
-  <si>
-    <t>Determine strength and composition of Chinese forces at Rayak airport.</t>
-  </si>
-  <si>
-    <r>
-      <t>Updated:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> After D8</t>
-    </r>
+    <t xml:space="preserve">IR35.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there SA-6 or SA-11 within 50km of the FLOT?  If so, where?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES, Both SA-6 and SA-11 observed IVO Kharab Ishk [D8.2-30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR35.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there MBTs or SA-19s located near Hatay to the south or east (apart from IVO Minakh)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR35.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there BMP-2 or SA-13 located with 12th DIV near Birecik or Attaturk dam?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR35.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there SA-8 located IVO Birecik or Attaturk dam?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR35.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many SA-15s/SA-8s are located at Gaziantep? D5 to D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outdated IR, field in friendly hands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR35.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many SA-15s/SA-8s are located at Minakh? D5 to D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR35.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many SA-15s are located at Birecik dam? D5 to D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR35.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many SA-15s/SA-8s are located south of Hatay? D5 to D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR35.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many SA-15s/SA-8s are located IVO Taftanaz? D5 to D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR35.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are any SA-15s/SA-8s located within 50km of the FLOT but not IVO south of Hatay, Taftanaz, Minakh, Gaziantep or Birecik Dam? D5 to D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES SA-15 reported ivo the SA-6/SA-11 site IVO Kharab Ishk [D8.2-30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR35.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there enemy SAMs located IVO Kharab Ishk?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR35.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there enemy SAMs located IVO Tal Siman?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES, last seen D10 [D10.1-37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR35.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there enemy SAMs located IVO Aleppo Intl?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR35.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is any enemy rotary wing activity observed within 200km of FLOT? D5 to D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No radar (AWACS) RW activity seen on D4, D5 and D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR35.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is any fixed wing activity observed into or out of front-line airfields (Kharab Ishk, Aleppo Int, Kuweires, Tal Siman?  These may be possible staging points for Corps or Divisions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None seen by AWACS on D4, D5 and D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR35.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What military traffic is observed travelling close to SoF positions in Aleppo - esp. BRDM-2 or ARV MTLB-U BOMAN on D5, larger formations D5.2 onwards.  Report strength, type and direction of travel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the MiG-29s now located at Palmyra night-capable?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the MiG-29s now located at Palmyra engaging in CAP or QRA?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not seen on D5 or D6. D7 saw Escort flights from Palmyra escorting SU-24s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What units are present on the eastern side of the Euphrates river KB BD/BE? Disposition and composition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which EWRs and SAM units are located in south part of SCC East/West and North part of SCC South?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA-2, SA-3. SA-6, SA-11, SA-15. See VIS IADS Assessment after D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR39.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EWRs and SAMs IVO SYTGT076?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR39.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EWRs/SAMs IVO Shayrat AB?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA-2. Possible SA-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR39.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EWRs/SAMs IVO TIyas AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR39.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EWRs/SAMs IVO Palmyra AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA-2, SA-3, SA-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What enemy activity is present at Al Qusayr AB?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there another SA-10 “Grumble” active in Syria near Tabqa / Killbox CE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As of D8, likely no [D8.2-30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR42.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What types of aircraft routinely patrol the eastern MED?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR42.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What flag do these aircrafts fly under?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What ships comprise the Russian SAG(s)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum: 1x Slava-class cruiser, 1x Kirov-class battlecruiser, 2x Grisha-class corvettes, 3x Ropucha-class landing ships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What ships comprise the Chinese SAG(s)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum: 1x 052C Destroyer, 2x 071 Transport Dock, 1x Supply ship MV Tilde, 1x 054 Frigate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR45.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EWRs/SAMs IVO Kuweires?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possible SA-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR46.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of remaining aircraft at Tabqa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR46.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of runways and repair efforts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR47.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determine number and type of aircraft at Tiyas AB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR47.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determine number and type of aircraft at Palmyra AB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determine strength and composition of Russian forces at Bassel Al-Assad AB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determine strength and composition of Chinese/Russian forces at Beirut airport.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determine strength and composition of Chinese forces at Rayak airport.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is the Backup SCC EAST located? Tiyas or Palmyra?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR52.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is the russian Kirov-class battlecruiser located?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR52.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Kirov-class battlecruiser have an escort and, if yes, what ships is it comprised of?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR53.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is the russian Slava-class cruiser located?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR53.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What ships comprise the escort of the Slava-class cruiser?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR54.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where are the chinese 071 tranport docks located?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR54.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What ships comprise the escort of the 071 transport docks?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -858,7 +951,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="36"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -866,7 +974,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -888,8 +996,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,7 +1013,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
     <fill>
@@ -910,8 +1024,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBBE33D"/>
-        <bgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
     <fill>
@@ -922,117 +1042,192 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="32">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2F0D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1082,15 +1277,7 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2F0D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1116,7 +1303,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFB6D7A8"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1149,1712 +1336,1479 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G385"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:S385"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.1015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="7.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10" style="4" customWidth="1"/>
-    <col min="7" max="7" width="87.140625" style="5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="7.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="44.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="9.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="84.53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="46.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" ht="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" s="10" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="45">
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="45.95" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="60">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="G26" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30">
+    </row>
+    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
       <c r="B29" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11"/>
       <c r="B31" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7" ht="30">
+    <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11"/>
       <c r="B32" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11"/>
       <c r="B33" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11"/>
       <c r="B34" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="G34" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="22" customFormat="1" ht="45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" s="22" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="18"/>
       <c r="B35" s="18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="G35" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="17" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="1:7">
+        <v>58</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11"/>
       <c r="B40" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="1:7" ht="30">
+        <v>126</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="17" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="1:7">
+        <v>58</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="1:7" ht="60">
+    <row r="43" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11"/>
       <c r="B44" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11"/>
       <c r="B45" s="11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="17" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="30">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11"/>
       <c r="B47" s="11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="30">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11"/>
       <c r="B48" s="11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="G48" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="17" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="17.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11"/>
       <c r="B52" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="17" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="G52" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="30">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11"/>
       <c r="B53" s="11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="17" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="1:7" ht="30">
+    <row r="54" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11"/>
       <c r="B54" s="11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="17" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="1:7" ht="30">
+    <row r="55" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="11"/>
       <c r="B55" s="11" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="17" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="14"/>
     </row>
-    <row r="56" spans="1:7" s="23" customFormat="1" ht="30">
+    <row r="56" s="24" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="18"/>
       <c r="B56" s="18" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="19" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
-    </row>
-    <row r="57" spans="1:7" ht="30">
+        <v>126</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="11"/>
       <c r="B57" s="11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="17" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="1:7" ht="30">
+    <row r="58" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11"/>
       <c r="B58" s="11" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="17" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" spans="1:7" ht="30">
+    <row r="59" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="11"/>
       <c r="B59" s="11" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="17" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="1:7" ht="30">
+    <row r="60" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11"/>
       <c r="B60" s="11" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="17" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="14"/>
     </row>
-    <row r="61" spans="1:7" ht="45">
+    <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11"/>
       <c r="B61" s="11" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="17" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F61" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="G61" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>182</v>
+      </c>
+      <c r="S61" s="25"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="11"/>
       <c r="B62" s="11" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="17" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F62" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="G62" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="11"/>
       <c r="B63" s="11" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="17" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F63" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="G63" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="11"/>
       <c r="B64" s="11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="17" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="14"/>
     </row>
-    <row r="65" spans="1:7" ht="30">
+    <row r="65" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11"/>
       <c r="B65" s="11" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="17" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="60">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11"/>
       <c r="B66" s="11" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="17" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="75">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11"/>
       <c r="B67" s="11" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C67" s="11"/>
-      <c r="D67" s="24" t="s">
-        <v>192</v>
+      <c r="D67" s="26" t="s">
+        <v>197</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="1:7" ht="30">
+    <row r="68" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="17" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="14"/>
     </row>
-    <row r="69" spans="1:7" ht="30">
+    <row r="69" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="11" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="17" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="11" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="17" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="14"/>
     </row>
-    <row r="71" spans="1:7" ht="45">
+    <row r="71" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="17" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="F71" s="13"/>
-      <c r="G71" s="14"/>
-    </row>
-    <row r="72" spans="1:7">
+        <v>85</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="11"/>
       <c r="B72" s="11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="17" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="F72" s="13"/>
       <c r="G72" s="14"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="11"/>
       <c r="B73" s="11" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="17" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="14"/>
-    </row>
-    <row r="74" spans="1:7">
+        <v>85</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="11"/>
       <c r="B74" s="11" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="17" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="11"/>
       <c r="B75" s="11" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="17" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="14"/>
-    </row>
-    <row r="76" spans="1:7">
+        <v>85</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="11" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="17" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="14"/>
     </row>
-    <row r="77" spans="1:7" ht="30">
-      <c r="A77" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="F77" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="G77" s="28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="30">
+    <row r="77" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E77" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="G77" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="11" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="17" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="14"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="11"/>
       <c r="B79" s="11" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="17" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="F79" s="13"/>
       <c r="G79" s="14"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="11" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="17" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F80" s="13"/>
-      <c r="G80" s="14"/>
-    </row>
-    <row r="81" spans="1:7">
+        <v>161</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="11" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="17" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F81" s="13"/>
-      <c r="G81" s="14"/>
-    </row>
-    <row r="82" spans="1:7">
+        <v>161</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="11" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -2863,184 +2817,234 @@
       <c r="F82" s="13"/>
       <c r="G82" s="14"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="11"/>
       <c r="B83" s="11" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="17" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="F83" s="13"/>
-      <c r="G83" s="14"/>
-    </row>
-    <row r="84" spans="1:7">
+        <v>238</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="11" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="17" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="F84" s="13"/>
       <c r="G84" s="14"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="11"/>
       <c r="B85" s="11" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="17" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="F85" s="13"/>
       <c r="G85" s="14"/>
     </row>
-    <row r="86" spans="1:7" ht="30">
+    <row r="86" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="11" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="17" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
       <c r="G86" s="14"/>
     </row>
-    <row r="87" spans="1:7" ht="30">
+    <row r="87" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="11"/>
       <c r="B87" s="11" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="17" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
       <c r="G87" s="14"/>
     </row>
-    <row r="88" spans="1:7" ht="30">
+    <row r="88" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="11" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="17" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
       <c r="G88" s="14"/>
     </row>
-    <row r="89" spans="1:7" ht="30">
+    <row r="89" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="11" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="17" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
       <c r="G89" s="14"/>
     </row>
-    <row r="90" spans="1:7" ht="30">
+    <row r="90" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="17" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
       <c r="G90" s="14"/>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="11"/>
+    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
-      <c r="D91" s="17"/>
+      <c r="D91" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
       <c r="G91" s="14"/>
     </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>259</v>
+      </c>
       <c r="C92" s="11"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="13"/>
+      <c r="D92" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>261</v>
+      </c>
       <c r="F92" s="13"/>
       <c r="G92" s="14"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
+      <c r="B93" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="C93" s="11"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="13"/>
+      <c r="D93" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>261</v>
+      </c>
       <c r="F93" s="13"/>
       <c r="G93" s="14"/>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>265</v>
+      </c>
       <c r="C94" s="11"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="13"/>
+      <c r="D94" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>261</v>
+      </c>
       <c r="F94" s="13"/>
       <c r="G94" s="14"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
+      <c r="B95" s="11" t="s">
+        <v>267</v>
+      </c>
       <c r="C95" s="11"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="13"/>
+      <c r="D95" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>261</v>
+      </c>
       <c r="F95" s="13"/>
       <c r="G95" s="14"/>
     </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>270</v>
+      </c>
       <c r="C96" s="11"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="13"/>
+      <c r="D96" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>261</v>
+      </c>
       <c r="F96" s="13"/>
       <c r="G96" s="14"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
+      <c r="B97" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="C97" s="11"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="13"/>
+      <c r="D97" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>261</v>
+      </c>
       <c r="F97" s="13"/>
       <c r="G97" s="14"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -3049,7 +3053,7 @@
       <c r="F98" s="13"/>
       <c r="G98" s="14"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -3058,7 +3062,7 @@
       <c r="F99" s="13"/>
       <c r="G99" s="14"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -3067,7 +3071,7 @@
       <c r="F100" s="13"/>
       <c r="G100" s="14"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -3076,7 +3080,7 @@
       <c r="F101" s="13"/>
       <c r="G101" s="14"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -3085,7 +3089,7 @@
       <c r="F102" s="13"/>
       <c r="G102" s="14"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -3094,7 +3098,7 @@
       <c r="F103" s="13"/>
       <c r="G103" s="14"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -3103,7 +3107,7 @@
       <c r="F104" s="13"/>
       <c r="G104" s="14"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -3112,7 +3116,7 @@
       <c r="F105" s="13"/>
       <c r="G105" s="14"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -3121,7 +3125,7 @@
       <c r="F106" s="13"/>
       <c r="G106" s="14"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -3130,7 +3134,7 @@
       <c r="F107" s="13"/>
       <c r="G107" s="14"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -3139,7 +3143,7 @@
       <c r="F108" s="13"/>
       <c r="G108" s="14"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -3148,7 +3152,7 @@
       <c r="F109" s="13"/>
       <c r="G109" s="14"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -3157,7 +3161,7 @@
       <c r="F110" s="13"/>
       <c r="G110" s="14"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -3166,7 +3170,7 @@
       <c r="F111" s="13"/>
       <c r="G111" s="14"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -3175,7 +3179,7 @@
       <c r="F112" s="13"/>
       <c r="G112" s="14"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -3184,7 +3188,7 @@
       <c r="F113" s="13"/>
       <c r="G113" s="14"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -3193,7 +3197,7 @@
       <c r="F114" s="13"/>
       <c r="G114" s="14"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -3202,7 +3206,7 @@
       <c r="F115" s="13"/>
       <c r="G115" s="14"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -3211,7 +3215,7 @@
       <c r="F116" s="13"/>
       <c r="G116" s="14"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -3220,7 +3224,7 @@
       <c r="F117" s="13"/>
       <c r="G117" s="14"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -3229,7 +3233,7 @@
       <c r="F118" s="13"/>
       <c r="G118" s="14"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -3238,7 +3242,7 @@
       <c r="F119" s="13"/>
       <c r="G119" s="14"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -3247,7 +3251,7 @@
       <c r="F120" s="13"/>
       <c r="G120" s="14"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -3256,7 +3260,7 @@
       <c r="F121" s="13"/>
       <c r="G121" s="14"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -3265,7 +3269,7 @@
       <c r="F122" s="13"/>
       <c r="G122" s="14"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -3274,7 +3278,7 @@
       <c r="F123" s="13"/>
       <c r="G123" s="14"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -3283,7 +3287,7 @@
       <c r="F124" s="13"/>
       <c r="G124" s="14"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -3292,7 +3296,7 @@
       <c r="F125" s="13"/>
       <c r="G125" s="14"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -3301,7 +3305,7 @@
       <c r="F126" s="13"/>
       <c r="G126" s="14"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -3310,7 +3314,7 @@
       <c r="F127" s="13"/>
       <c r="G127" s="14"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -3319,7 +3323,7 @@
       <c r="F128" s="13"/>
       <c r="G128" s="14"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -3328,7 +3332,7 @@
       <c r="F129" s="13"/>
       <c r="G129" s="14"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -3337,7 +3341,7 @@
       <c r="F130" s="13"/>
       <c r="G130" s="14"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -3346,7 +3350,7 @@
       <c r="F131" s="13"/>
       <c r="G131" s="14"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -3355,7 +3359,7 @@
       <c r="F132" s="13"/>
       <c r="G132" s="14"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -3364,7 +3368,7 @@
       <c r="F133" s="13"/>
       <c r="G133" s="14"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -3373,7 +3377,7 @@
       <c r="F134" s="13"/>
       <c r="G134" s="14"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -3382,7 +3386,7 @@
       <c r="F135" s="13"/>
       <c r="G135" s="14"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -3391,7 +3395,7 @@
       <c r="F136" s="13"/>
       <c r="G136" s="14"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -3400,7 +3404,7 @@
       <c r="F137" s="13"/>
       <c r="G137" s="14"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -3409,7 +3413,7 @@
       <c r="F138" s="13"/>
       <c r="G138" s="14"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -3418,7 +3422,7 @@
       <c r="F139" s="13"/>
       <c r="G139" s="14"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -3427,7 +3431,7 @@
       <c r="F140" s="13"/>
       <c r="G140" s="14"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -3436,7 +3440,7 @@
       <c r="F141" s="13"/>
       <c r="G141" s="14"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -3445,7 +3449,7 @@
       <c r="F142" s="13"/>
       <c r="G142" s="14"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -3454,7 +3458,7 @@
       <c r="F143" s="13"/>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -3463,7 +3467,7 @@
       <c r="F144" s="13"/>
       <c r="G144" s="14"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -3472,7 +3476,7 @@
       <c r="F145" s="13"/>
       <c r="G145" s="14"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -3481,7 +3485,7 @@
       <c r="F146" s="13"/>
       <c r="G146" s="14"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -3490,7 +3494,7 @@
       <c r="F147" s="13"/>
       <c r="G147" s="14"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -3499,7 +3503,7 @@
       <c r="F148" s="13"/>
       <c r="G148" s="14"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -3508,7 +3512,7 @@
       <c r="F149" s="13"/>
       <c r="G149" s="14"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -3517,7 +3521,7 @@
       <c r="F150" s="13"/>
       <c r="G150" s="14"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -3526,7 +3530,7 @@
       <c r="F151" s="13"/>
       <c r="G151" s="14"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -3535,7 +3539,7 @@
       <c r="F152" s="13"/>
       <c r="G152" s="14"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -3544,7 +3548,7 @@
       <c r="F153" s="13"/>
       <c r="G153" s="14"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -3553,7 +3557,7 @@
       <c r="F154" s="13"/>
       <c r="G154" s="14"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -3562,7 +3566,7 @@
       <c r="F155" s="13"/>
       <c r="G155" s="14"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -3571,7 +3575,7 @@
       <c r="F156" s="13"/>
       <c r="G156" s="14"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -3580,7 +3584,7 @@
       <c r="F157" s="13"/>
       <c r="G157" s="14"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -3589,7 +3593,7 @@
       <c r="F158" s="13"/>
       <c r="G158" s="14"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -3598,7 +3602,7 @@
       <c r="F159" s="13"/>
       <c r="G159" s="14"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -3607,7 +3611,7 @@
       <c r="F160" s="13"/>
       <c r="G160" s="14"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -3616,7 +3620,7 @@
       <c r="F161" s="13"/>
       <c r="G161" s="14"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -3625,7 +3629,7 @@
       <c r="F162" s="13"/>
       <c r="G162" s="14"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -3634,7 +3638,7 @@
       <c r="F163" s="13"/>
       <c r="G163" s="14"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -3643,7 +3647,7 @@
       <c r="F164" s="13"/>
       <c r="G164" s="14"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -3652,7 +3656,7 @@
       <c r="F165" s="13"/>
       <c r="G165" s="14"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -3661,7 +3665,7 @@
       <c r="F166" s="13"/>
       <c r="G166" s="14"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -3670,7 +3674,7 @@
       <c r="F167" s="13"/>
       <c r="G167" s="14"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -3679,7 +3683,7 @@
       <c r="F168" s="13"/>
       <c r="G168" s="14"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -3688,7 +3692,7 @@
       <c r="F169" s="13"/>
       <c r="G169" s="14"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -3697,7 +3701,7 @@
       <c r="F170" s="13"/>
       <c r="G170" s="14"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -3706,7 +3710,7 @@
       <c r="F171" s="13"/>
       <c r="G171" s="14"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -3715,7 +3719,7 @@
       <c r="F172" s="13"/>
       <c r="G172" s="14"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -3724,7 +3728,7 @@
       <c r="F173" s="13"/>
       <c r="G173" s="14"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -3733,7 +3737,7 @@
       <c r="F174" s="13"/>
       <c r="G174" s="14"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -3742,7 +3746,7 @@
       <c r="F175" s="13"/>
       <c r="G175" s="14"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -3751,7 +3755,7 @@
       <c r="F176" s="13"/>
       <c r="G176" s="14"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -3760,7 +3764,7 @@
       <c r="F177" s="13"/>
       <c r="G177" s="14"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -3769,7 +3773,7 @@
       <c r="F178" s="13"/>
       <c r="G178" s="14"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -3778,7 +3782,7 @@
       <c r="F179" s="13"/>
       <c r="G179" s="14"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -3787,7 +3791,7 @@
       <c r="F180" s="13"/>
       <c r="G180" s="14"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -3796,7 +3800,7 @@
       <c r="F181" s="13"/>
       <c r="G181" s="14"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -3805,7 +3809,7 @@
       <c r="F182" s="13"/>
       <c r="G182" s="14"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -3814,7 +3818,7 @@
       <c r="F183" s="13"/>
       <c r="G183" s="14"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -3823,7 +3827,7 @@
       <c r="F184" s="13"/>
       <c r="G184" s="14"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -3832,7 +3836,7 @@
       <c r="F185" s="13"/>
       <c r="G185" s="14"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -3841,7 +3845,7 @@
       <c r="F186" s="13"/>
       <c r="G186" s="14"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -3850,7 +3854,7 @@
       <c r="F187" s="13"/>
       <c r="G187" s="14"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -3859,7 +3863,7 @@
       <c r="F188" s="13"/>
       <c r="G188" s="14"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -3868,7 +3872,7 @@
       <c r="F189" s="13"/>
       <c r="G189" s="14"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -3877,7 +3881,7 @@
       <c r="F190" s="13"/>
       <c r="G190" s="14"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -3886,7 +3890,7 @@
       <c r="F191" s="13"/>
       <c r="G191" s="14"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -3895,7 +3899,7 @@
       <c r="F192" s="13"/>
       <c r="G192" s="14"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -3904,7 +3908,7 @@
       <c r="F193" s="13"/>
       <c r="G193" s="14"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -3913,7 +3917,7 @@
       <c r="F194" s="13"/>
       <c r="G194" s="14"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -3922,7 +3926,7 @@
       <c r="F195" s="13"/>
       <c r="G195" s="14"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -3931,7 +3935,7 @@
       <c r="F196" s="13"/>
       <c r="G196" s="14"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -3940,7 +3944,7 @@
       <c r="F197" s="13"/>
       <c r="G197" s="14"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -3949,7 +3953,7 @@
       <c r="F198" s="13"/>
       <c r="G198" s="14"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -3958,7 +3962,7 @@
       <c r="F199" s="13"/>
       <c r="G199" s="14"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -3967,7 +3971,7 @@
       <c r="F200" s="13"/>
       <c r="G200" s="14"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -3976,7 +3980,7 @@
       <c r="F201" s="13"/>
       <c r="G201" s="14"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -3985,7 +3989,7 @@
       <c r="F202" s="13"/>
       <c r="G202" s="14"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -3994,7 +3998,7 @@
       <c r="F203" s="13"/>
       <c r="G203" s="14"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -4003,7 +4007,7 @@
       <c r="F204" s="13"/>
       <c r="G204" s="14"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -4012,7 +4016,7 @@
       <c r="F205" s="13"/>
       <c r="G205" s="14"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -4021,7 +4025,7 @@
       <c r="F206" s="13"/>
       <c r="G206" s="14"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -4030,7 +4034,7 @@
       <c r="F207" s="13"/>
       <c r="G207" s="14"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -4039,7 +4043,7 @@
       <c r="F208" s="13"/>
       <c r="G208" s="14"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -4048,7 +4052,7 @@
       <c r="F209" s="13"/>
       <c r="G209" s="14"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -4057,7 +4061,7 @@
       <c r="F210" s="13"/>
       <c r="G210" s="14"/>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -4066,7 +4070,7 @@
       <c r="F211" s="13"/>
       <c r="G211" s="14"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -4075,7 +4079,7 @@
       <c r="F212" s="13"/>
       <c r="G212" s="14"/>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -4084,7 +4088,7 @@
       <c r="F213" s="13"/>
       <c r="G213" s="14"/>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -4093,7 +4097,7 @@
       <c r="F214" s="13"/>
       <c r="G214" s="14"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -4102,7 +4106,7 @@
       <c r="F215" s="13"/>
       <c r="G215" s="14"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -4111,7 +4115,7 @@
       <c r="F216" s="13"/>
       <c r="G216" s="14"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -4120,7 +4124,7 @@
       <c r="F217" s="13"/>
       <c r="G217" s="14"/>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -4129,7 +4133,7 @@
       <c r="F218" s="13"/>
       <c r="G218" s="14"/>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -4138,7 +4142,7 @@
       <c r="F219" s="13"/>
       <c r="G219" s="14"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -4147,7 +4151,7 @@
       <c r="F220" s="13"/>
       <c r="G220" s="14"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -4156,7 +4160,7 @@
       <c r="F221" s="13"/>
       <c r="G221" s="14"/>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -4165,7 +4169,7 @@
       <c r="F222" s="13"/>
       <c r="G222" s="14"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -4174,7 +4178,7 @@
       <c r="F223" s="13"/>
       <c r="G223" s="14"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
@@ -4183,7 +4187,7 @@
       <c r="F224" s="13"/>
       <c r="G224" s="14"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
@@ -4192,7 +4196,7 @@
       <c r="F225" s="13"/>
       <c r="G225" s="14"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
@@ -4201,7 +4205,7 @@
       <c r="F226" s="13"/>
       <c r="G226" s="14"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="11"/>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
@@ -4210,7 +4214,7 @@
       <c r="F227" s="13"/>
       <c r="G227" s="14"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
@@ -4219,7 +4223,7 @@
       <c r="F228" s="13"/>
       <c r="G228" s="14"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="11"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
@@ -4228,7 +4232,7 @@
       <c r="F229" s="13"/>
       <c r="G229" s="14"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="11"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
@@ -4237,7 +4241,7 @@
       <c r="F230" s="13"/>
       <c r="G230" s="14"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
@@ -4246,7 +4250,7 @@
       <c r="F231" s="13"/>
       <c r="G231" s="14"/>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
@@ -4255,7 +4259,7 @@
       <c r="F232" s="13"/>
       <c r="G232" s="14"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="11"/>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
@@ -4264,7 +4268,7 @@
       <c r="F233" s="13"/>
       <c r="G233" s="14"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="11"/>
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
@@ -4273,7 +4277,7 @@
       <c r="F234" s="13"/>
       <c r="G234" s="14"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="11"/>
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
@@ -4282,7 +4286,7 @@
       <c r="F235" s="13"/>
       <c r="G235" s="14"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="11"/>
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
@@ -4291,7 +4295,7 @@
       <c r="F236" s="13"/>
       <c r="G236" s="14"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="11"/>
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
@@ -4300,7 +4304,7 @@
       <c r="F237" s="13"/>
       <c r="G237" s="14"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="11"/>
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
@@ -4309,7 +4313,7 @@
       <c r="F238" s="13"/>
       <c r="G238" s="14"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="11"/>
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
@@ -4318,7 +4322,7 @@
       <c r="F239" s="13"/>
       <c r="G239" s="14"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="11"/>
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
@@ -4327,7 +4331,7 @@
       <c r="F240" s="13"/>
       <c r="G240" s="14"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="11"/>
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
@@ -4336,7 +4340,7 @@
       <c r="F241" s="13"/>
       <c r="G241" s="14"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="11"/>
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
@@ -4345,7 +4349,7 @@
       <c r="F242" s="13"/>
       <c r="G242" s="14"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="11"/>
       <c r="B243" s="11"/>
       <c r="C243" s="11"/>
@@ -4354,7 +4358,7 @@
       <c r="F243" s="13"/>
       <c r="G243" s="14"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="11"/>
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
@@ -4363,7 +4367,7 @@
       <c r="F244" s="13"/>
       <c r="G244" s="14"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="11"/>
       <c r="B245" s="11"/>
       <c r="C245" s="11"/>
@@ -4372,7 +4376,7 @@
       <c r="F245" s="13"/>
       <c r="G245" s="14"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="11"/>
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
@@ -4381,7 +4385,7 @@
       <c r="F246" s="13"/>
       <c r="G246" s="14"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="11"/>
       <c r="B247" s="11"/>
       <c r="C247" s="11"/>
@@ -4390,7 +4394,7 @@
       <c r="F247" s="13"/>
       <c r="G247" s="14"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="11"/>
       <c r="B248" s="11"/>
       <c r="C248" s="11"/>
@@ -4399,7 +4403,7 @@
       <c r="F248" s="13"/>
       <c r="G248" s="14"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="11"/>
       <c r="B249" s="11"/>
       <c r="C249" s="11"/>
@@ -4408,7 +4412,7 @@
       <c r="F249" s="13"/>
       <c r="G249" s="14"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="11"/>
       <c r="B250" s="11"/>
       <c r="C250" s="11"/>
@@ -4417,7 +4421,7 @@
       <c r="F250" s="13"/>
       <c r="G250" s="14"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="11"/>
       <c r="B251" s="11"/>
       <c r="C251" s="11"/>
@@ -4426,7 +4430,7 @@
       <c r="F251" s="13"/>
       <c r="G251" s="14"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="11"/>
       <c r="B252" s="11"/>
       <c r="C252" s="11"/>
@@ -4435,7 +4439,7 @@
       <c r="F252" s="13"/>
       <c r="G252" s="14"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="11"/>
       <c r="B253" s="11"/>
       <c r="C253" s="11"/>
@@ -4444,7 +4448,7 @@
       <c r="F253" s="13"/>
       <c r="G253" s="14"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="11"/>
       <c r="B254" s="11"/>
       <c r="C254" s="11"/>
@@ -4453,7 +4457,7 @@
       <c r="F254" s="13"/>
       <c r="G254" s="14"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="11"/>
       <c r="B255" s="11"/>
       <c r="C255" s="11"/>
@@ -4462,7 +4466,7 @@
       <c r="F255" s="13"/>
       <c r="G255" s="14"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="11"/>
       <c r="B256" s="11"/>
       <c r="C256" s="11"/>
@@ -4471,7 +4475,7 @@
       <c r="F256" s="13"/>
       <c r="G256" s="14"/>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="11"/>
       <c r="B257" s="11"/>
       <c r="C257" s="11"/>
@@ -4480,7 +4484,7 @@
       <c r="F257" s="13"/>
       <c r="G257" s="14"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="11"/>
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
@@ -4489,7 +4493,7 @@
       <c r="F258" s="13"/>
       <c r="G258" s="14"/>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="11"/>
       <c r="B259" s="11"/>
       <c r="C259" s="11"/>
@@ -4498,7 +4502,7 @@
       <c r="F259" s="13"/>
       <c r="G259" s="14"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="11"/>
       <c r="B260" s="11"/>
       <c r="C260" s="11"/>
@@ -4507,7 +4511,7 @@
       <c r="F260" s="13"/>
       <c r="G260" s="14"/>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="11"/>
       <c r="B261" s="11"/>
       <c r="C261" s="11"/>
@@ -4516,7 +4520,7 @@
       <c r="F261" s="13"/>
       <c r="G261" s="14"/>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="11"/>
       <c r="B262" s="11"/>
       <c r="C262" s="11"/>
@@ -4525,7 +4529,7 @@
       <c r="F262" s="13"/>
       <c r="G262" s="14"/>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="11"/>
       <c r="B263" s="11"/>
       <c r="C263" s="11"/>
@@ -4534,7 +4538,7 @@
       <c r="F263" s="13"/>
       <c r="G263" s="14"/>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="11"/>
       <c r="B264" s="11"/>
       <c r="C264" s="11"/>
@@ -4543,7 +4547,7 @@
       <c r="F264" s="13"/>
       <c r="G264" s="14"/>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="11"/>
       <c r="B265" s="11"/>
       <c r="C265" s="11"/>
@@ -4552,7 +4556,7 @@
       <c r="F265" s="13"/>
       <c r="G265" s="14"/>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="11"/>
       <c r="B266" s="11"/>
       <c r="C266" s="11"/>
@@ -4561,7 +4565,7 @@
       <c r="F266" s="13"/>
       <c r="G266" s="14"/>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="11"/>
       <c r="B267" s="11"/>
       <c r="C267" s="11"/>
@@ -4570,7 +4574,7 @@
       <c r="F267" s="13"/>
       <c r="G267" s="14"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="11"/>
       <c r="B268" s="11"/>
       <c r="C268" s="11"/>
@@ -4579,7 +4583,7 @@
       <c r="F268" s="13"/>
       <c r="G268" s="14"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="11"/>
       <c r="B269" s="11"/>
       <c r="C269" s="11"/>
@@ -4588,7 +4592,7 @@
       <c r="F269" s="13"/>
       <c r="G269" s="14"/>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="11"/>
       <c r="B270" s="11"/>
       <c r="C270" s="11"/>
@@ -4597,7 +4601,7 @@
       <c r="F270" s="13"/>
       <c r="G270" s="14"/>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="11"/>
       <c r="B271" s="11"/>
       <c r="C271" s="11"/>
@@ -4606,7 +4610,7 @@
       <c r="F271" s="13"/>
       <c r="G271" s="14"/>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="11"/>
       <c r="B272" s="11"/>
       <c r="C272" s="11"/>
@@ -4615,7 +4619,7 @@
       <c r="F272" s="13"/>
       <c r="G272" s="14"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="11"/>
       <c r="B273" s="11"/>
       <c r="C273" s="11"/>
@@ -4624,7 +4628,7 @@
       <c r="F273" s="13"/>
       <c r="G273" s="14"/>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="11"/>
       <c r="B274" s="11"/>
       <c r="C274" s="11"/>
@@ -4633,7 +4637,7 @@
       <c r="F274" s="13"/>
       <c r="G274" s="14"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="11"/>
       <c r="B275" s="11"/>
       <c r="C275" s="11"/>
@@ -4642,7 +4646,7 @@
       <c r="F275" s="13"/>
       <c r="G275" s="14"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="11"/>
       <c r="B276" s="11"/>
       <c r="C276" s="11"/>
@@ -4651,7 +4655,7 @@
       <c r="F276" s="13"/>
       <c r="G276" s="14"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="11"/>
       <c r="B277" s="11"/>
       <c r="C277" s="11"/>
@@ -4660,7 +4664,7 @@
       <c r="F277" s="13"/>
       <c r="G277" s="14"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="11"/>
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
@@ -4669,7 +4673,7 @@
       <c r="F278" s="13"/>
       <c r="G278" s="14"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="11"/>
       <c r="B279" s="11"/>
       <c r="C279" s="11"/>
@@ -4678,7 +4682,7 @@
       <c r="F279" s="13"/>
       <c r="G279" s="14"/>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="11"/>
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
@@ -4687,7 +4691,7 @@
       <c r="F280" s="13"/>
       <c r="G280" s="14"/>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="11"/>
       <c r="B281" s="11"/>
       <c r="C281" s="11"/>
@@ -4696,7 +4700,7 @@
       <c r="F281" s="13"/>
       <c r="G281" s="14"/>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="11"/>
       <c r="B282" s="11"/>
       <c r="C282" s="11"/>
@@ -4705,7 +4709,7 @@
       <c r="F282" s="13"/>
       <c r="G282" s="14"/>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="11"/>
       <c r="B283" s="11"/>
       <c r="C283" s="11"/>
@@ -4714,7 +4718,7 @@
       <c r="F283" s="13"/>
       <c r="G283" s="14"/>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="11"/>
       <c r="B284" s="11"/>
       <c r="C284" s="11"/>
@@ -4723,7 +4727,7 @@
       <c r="F284" s="13"/>
       <c r="G284" s="14"/>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="11"/>
       <c r="B285" s="11"/>
       <c r="C285" s="11"/>
@@ -4732,7 +4736,7 @@
       <c r="F285" s="13"/>
       <c r="G285" s="14"/>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="11"/>
       <c r="B286" s="11"/>
       <c r="C286" s="11"/>
@@ -4741,7 +4745,7 @@
       <c r="F286" s="13"/>
       <c r="G286" s="14"/>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="11"/>
       <c r="B287" s="11"/>
       <c r="C287" s="11"/>
@@ -4750,7 +4754,7 @@
       <c r="F287" s="13"/>
       <c r="G287" s="14"/>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="11"/>
       <c r="B288" s="11"/>
       <c r="C288" s="11"/>
@@ -4759,7 +4763,7 @@
       <c r="F288" s="13"/>
       <c r="G288" s="14"/>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="11"/>
       <c r="B289" s="11"/>
       <c r="C289" s="11"/>
@@ -4768,7 +4772,7 @@
       <c r="F289" s="13"/>
       <c r="G289" s="14"/>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="11"/>
       <c r="B290" s="11"/>
       <c r="C290" s="11"/>
@@ -4777,7 +4781,7 @@
       <c r="F290" s="13"/>
       <c r="G290" s="14"/>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="11"/>
       <c r="B291" s="11"/>
       <c r="C291" s="11"/>
@@ -4786,7 +4790,7 @@
       <c r="F291" s="13"/>
       <c r="G291" s="14"/>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="11"/>
       <c r="B292" s="11"/>
       <c r="C292" s="11"/>
@@ -4795,7 +4799,7 @@
       <c r="F292" s="13"/>
       <c r="G292" s="14"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="11"/>
       <c r="B293" s="11"/>
       <c r="C293" s="11"/>
@@ -4804,7 +4808,7 @@
       <c r="F293" s="13"/>
       <c r="G293" s="14"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="11"/>
       <c r="B294" s="11"/>
       <c r="C294" s="11"/>
@@ -4813,7 +4817,7 @@
       <c r="F294" s="13"/>
       <c r="G294" s="14"/>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="11"/>
       <c r="B295" s="11"/>
       <c r="C295" s="11"/>
@@ -4822,7 +4826,7 @@
       <c r="F295" s="13"/>
       <c r="G295" s="14"/>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="11"/>
       <c r="B296" s="11"/>
       <c r="C296" s="11"/>
@@ -4831,7 +4835,7 @@
       <c r="F296" s="13"/>
       <c r="G296" s="14"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="11"/>
       <c r="B297" s="11"/>
       <c r="C297" s="11"/>
@@ -4840,7 +4844,7 @@
       <c r="F297" s="13"/>
       <c r="G297" s="14"/>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="11"/>
       <c r="B298" s="11"/>
       <c r="C298" s="11"/>
@@ -4849,7 +4853,7 @@
       <c r="F298" s="13"/>
       <c r="G298" s="14"/>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="11"/>
       <c r="B299" s="11"/>
       <c r="C299" s="11"/>
@@ -4858,7 +4862,7 @@
       <c r="F299" s="13"/>
       <c r="G299" s="14"/>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="11"/>
       <c r="B300" s="11"/>
       <c r="C300" s="11"/>
@@ -4867,7 +4871,7 @@
       <c r="F300" s="13"/>
       <c r="G300" s="14"/>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="11"/>
       <c r="B301" s="11"/>
       <c r="C301" s="11"/>
@@ -4876,7 +4880,7 @@
       <c r="F301" s="13"/>
       <c r="G301" s="14"/>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="11"/>
       <c r="B302" s="11"/>
       <c r="C302" s="11"/>
@@ -4885,7 +4889,7 @@
       <c r="F302" s="13"/>
       <c r="G302" s="14"/>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="11"/>
       <c r="B303" s="11"/>
       <c r="C303" s="11"/>
@@ -4894,7 +4898,7 @@
       <c r="F303" s="13"/>
       <c r="G303" s="14"/>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="11"/>
       <c r="B304" s="11"/>
       <c r="C304" s="11"/>
@@ -4903,7 +4907,7 @@
       <c r="F304" s="13"/>
       <c r="G304" s="14"/>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="11"/>
       <c r="B305" s="11"/>
       <c r="C305" s="11"/>
@@ -4912,7 +4916,7 @@
       <c r="F305" s="13"/>
       <c r="G305" s="14"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="11"/>
       <c r="B306" s="11"/>
       <c r="C306" s="11"/>
@@ -4921,7 +4925,7 @@
       <c r="F306" s="13"/>
       <c r="G306" s="14"/>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="11"/>
       <c r="B307" s="11"/>
       <c r="C307" s="11"/>
@@ -4930,7 +4934,7 @@
       <c r="F307" s="13"/>
       <c r="G307" s="14"/>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="11"/>
       <c r="B308" s="11"/>
       <c r="C308" s="11"/>
@@ -4939,7 +4943,7 @@
       <c r="F308" s="13"/>
       <c r="G308" s="14"/>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="11"/>
       <c r="B309" s="11"/>
       <c r="C309" s="11"/>
@@ -4948,7 +4952,7 @@
       <c r="F309" s="13"/>
       <c r="G309" s="14"/>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="11"/>
       <c r="B310" s="11"/>
       <c r="C310" s="11"/>
@@ -4957,7 +4961,7 @@
       <c r="F310" s="13"/>
       <c r="G310" s="14"/>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="11"/>
       <c r="B311" s="11"/>
       <c r="C311" s="11"/>
@@ -4966,7 +4970,7 @@
       <c r="F311" s="13"/>
       <c r="G311" s="14"/>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="11"/>
       <c r="B312" s="11"/>
       <c r="C312" s="11"/>
@@ -4975,7 +4979,7 @@
       <c r="F312" s="13"/>
       <c r="G312" s="14"/>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="11"/>
       <c r="B313" s="11"/>
       <c r="C313" s="11"/>
@@ -4984,7 +4988,7 @@
       <c r="F313" s="13"/>
       <c r="G313" s="14"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="11"/>
       <c r="B314" s="11"/>
       <c r="C314" s="11"/>
@@ -4993,7 +4997,7 @@
       <c r="F314" s="13"/>
       <c r="G314" s="14"/>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="11"/>
       <c r="B315" s="11"/>
       <c r="C315" s="11"/>
@@ -5002,7 +5006,7 @@
       <c r="F315" s="13"/>
       <c r="G315" s="14"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="11"/>
       <c r="B316" s="11"/>
       <c r="C316" s="11"/>
@@ -5011,7 +5015,7 @@
       <c r="F316" s="13"/>
       <c r="G316" s="14"/>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="11"/>
       <c r="B317" s="11"/>
       <c r="C317" s="11"/>
@@ -5020,7 +5024,7 @@
       <c r="F317" s="13"/>
       <c r="G317" s="14"/>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="11"/>
       <c r="B318" s="11"/>
       <c r="C318" s="11"/>
@@ -5029,7 +5033,7 @@
       <c r="F318" s="13"/>
       <c r="G318" s="14"/>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="11"/>
       <c r="B319" s="11"/>
       <c r="C319" s="11"/>
@@ -5038,7 +5042,7 @@
       <c r="F319" s="13"/>
       <c r="G319" s="14"/>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="11"/>
       <c r="B320" s="11"/>
       <c r="C320" s="11"/>
@@ -5047,7 +5051,7 @@
       <c r="F320" s="13"/>
       <c r="G320" s="14"/>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="11"/>
       <c r="B321" s="11"/>
       <c r="C321" s="11"/>
@@ -5056,7 +5060,7 @@
       <c r="F321" s="13"/>
       <c r="G321" s="14"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="11"/>
       <c r="B322" s="11"/>
       <c r="C322" s="11"/>
@@ -5065,7 +5069,7 @@
       <c r="F322" s="13"/>
       <c r="G322" s="14"/>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="11"/>
       <c r="B323" s="11"/>
       <c r="C323" s="11"/>
@@ -5074,7 +5078,7 @@
       <c r="F323" s="13"/>
       <c r="G323" s="14"/>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="11"/>
       <c r="B324" s="11"/>
       <c r="C324" s="11"/>
@@ -5083,7 +5087,7 @@
       <c r="F324" s="13"/>
       <c r="G324" s="14"/>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="11"/>
       <c r="B325" s="11"/>
       <c r="C325" s="11"/>
@@ -5092,7 +5096,7 @@
       <c r="F325" s="13"/>
       <c r="G325" s="14"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="11"/>
       <c r="B326" s="11"/>
       <c r="C326" s="11"/>
@@ -5101,7 +5105,7 @@
       <c r="F326" s="13"/>
       <c r="G326" s="14"/>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="11"/>
       <c r="B327" s="11"/>
       <c r="C327" s="11"/>
@@ -5110,7 +5114,7 @@
       <c r="F327" s="13"/>
       <c r="G327" s="14"/>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="11"/>
       <c r="B328" s="11"/>
       <c r="C328" s="11"/>
@@ -5119,7 +5123,7 @@
       <c r="F328" s="13"/>
       <c r="G328" s="14"/>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="11"/>
       <c r="B329" s="11"/>
       <c r="C329" s="11"/>
@@ -5128,7 +5132,7 @@
       <c r="F329" s="13"/>
       <c r="G329" s="14"/>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="11"/>
       <c r="B330" s="11"/>
       <c r="C330" s="11"/>
@@ -5137,7 +5141,7 @@
       <c r="F330" s="13"/>
       <c r="G330" s="14"/>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="11"/>
       <c r="B331" s="11"/>
       <c r="C331" s="11"/>
@@ -5146,7 +5150,7 @@
       <c r="F331" s="13"/>
       <c r="G331" s="14"/>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="11"/>
       <c r="B332" s="11"/>
       <c r="C332" s="11"/>
@@ -5155,7 +5159,7 @@
       <c r="F332" s="13"/>
       <c r="G332" s="14"/>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="11"/>
       <c r="B333" s="11"/>
       <c r="C333" s="11"/>
@@ -5164,7 +5168,7 @@
       <c r="F333" s="13"/>
       <c r="G333" s="14"/>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="11"/>
       <c r="B334" s="11"/>
       <c r="C334" s="11"/>
@@ -5173,7 +5177,7 @@
       <c r="F334" s="13"/>
       <c r="G334" s="14"/>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="11"/>
       <c r="B335" s="11"/>
       <c r="C335" s="11"/>
@@ -5182,7 +5186,7 @@
       <c r="F335" s="13"/>
       <c r="G335" s="14"/>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="11"/>
       <c r="B336" s="11"/>
       <c r="C336" s="11"/>
@@ -5191,7 +5195,7 @@
       <c r="F336" s="13"/>
       <c r="G336" s="14"/>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="11"/>
       <c r="B337" s="11"/>
       <c r="C337" s="11"/>
@@ -5200,7 +5204,7 @@
       <c r="F337" s="13"/>
       <c r="G337" s="14"/>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="11"/>
       <c r="B338" s="11"/>
       <c r="C338" s="11"/>
@@ -5209,7 +5213,7 @@
       <c r="F338" s="13"/>
       <c r="G338" s="14"/>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="11"/>
       <c r="B339" s="11"/>
       <c r="C339" s="11"/>
@@ -5218,7 +5222,7 @@
       <c r="F339" s="13"/>
       <c r="G339" s="14"/>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="11"/>
       <c r="B340" s="11"/>
       <c r="C340" s="11"/>
@@ -5227,7 +5231,7 @@
       <c r="F340" s="13"/>
       <c r="G340" s="14"/>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="11"/>
       <c r="B341" s="11"/>
       <c r="C341" s="11"/>
@@ -5236,7 +5240,7 @@
       <c r="F341" s="13"/>
       <c r="G341" s="14"/>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="11"/>
       <c r="B342" s="11"/>
       <c r="C342" s="11"/>
@@ -5245,7 +5249,7 @@
       <c r="F342" s="13"/>
       <c r="G342" s="14"/>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="11"/>
       <c r="B343" s="11"/>
       <c r="C343" s="11"/>
@@ -5254,7 +5258,7 @@
       <c r="F343" s="13"/>
       <c r="G343" s="14"/>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="11"/>
       <c r="B344" s="11"/>
       <c r="C344" s="11"/>
@@ -5263,7 +5267,7 @@
       <c r="F344" s="13"/>
       <c r="G344" s="14"/>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="11"/>
       <c r="B345" s="11"/>
       <c r="C345" s="11"/>
@@ -5272,7 +5276,7 @@
       <c r="F345" s="13"/>
       <c r="G345" s="14"/>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="11"/>
       <c r="B346" s="11"/>
       <c r="C346" s="11"/>
@@ -5281,7 +5285,7 @@
       <c r="F346" s="13"/>
       <c r="G346" s="14"/>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="11"/>
       <c r="B347" s="11"/>
       <c r="C347" s="11"/>
@@ -5290,7 +5294,7 @@
       <c r="F347" s="13"/>
       <c r="G347" s="14"/>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="11"/>
       <c r="B348" s="11"/>
       <c r="C348" s="11"/>
@@ -5299,7 +5303,7 @@
       <c r="F348" s="13"/>
       <c r="G348" s="14"/>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="11"/>
       <c r="B349" s="11"/>
       <c r="C349" s="11"/>
@@ -5308,7 +5312,7 @@
       <c r="F349" s="13"/>
       <c r="G349" s="14"/>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="11"/>
       <c r="B350" s="11"/>
       <c r="C350" s="11"/>
@@ -5317,7 +5321,7 @@
       <c r="F350" s="13"/>
       <c r="G350" s="14"/>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="11"/>
       <c r="B351" s="11"/>
       <c r="C351" s="11"/>
@@ -5326,7 +5330,7 @@
       <c r="F351" s="13"/>
       <c r="G351" s="14"/>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="11"/>
       <c r="B352" s="11"/>
       <c r="C352" s="11"/>
@@ -5335,7 +5339,7 @@
       <c r="F352" s="13"/>
       <c r="G352" s="14"/>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="11"/>
       <c r="B353" s="11"/>
       <c r="C353" s="11"/>
@@ -5344,7 +5348,7 @@
       <c r="F353" s="13"/>
       <c r="G353" s="14"/>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="11"/>
       <c r="B354" s="11"/>
       <c r="C354" s="11"/>
@@ -5353,7 +5357,7 @@
       <c r="F354" s="13"/>
       <c r="G354" s="14"/>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="11"/>
       <c r="B355" s="11"/>
       <c r="C355" s="11"/>
@@ -5362,7 +5366,7 @@
       <c r="F355" s="13"/>
       <c r="G355" s="14"/>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="11"/>
       <c r="B356" s="11"/>
       <c r="C356" s="11"/>
@@ -5371,7 +5375,7 @@
       <c r="F356" s="13"/>
       <c r="G356" s="14"/>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="11"/>
       <c r="B357" s="11"/>
       <c r="C357" s="11"/>
@@ -5380,7 +5384,7 @@
       <c r="F357" s="13"/>
       <c r="G357" s="14"/>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="11"/>
       <c r="B358" s="11"/>
       <c r="C358" s="11"/>
@@ -5389,7 +5393,7 @@
       <c r="F358" s="13"/>
       <c r="G358" s="14"/>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="11"/>
       <c r="B359" s="11"/>
       <c r="C359" s="11"/>
@@ -5398,7 +5402,7 @@
       <c r="F359" s="13"/>
       <c r="G359" s="14"/>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="11"/>
       <c r="B360" s="11"/>
       <c r="C360" s="11"/>
@@ -5407,7 +5411,7 @@
       <c r="F360" s="13"/>
       <c r="G360" s="14"/>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="11"/>
       <c r="B361" s="11"/>
       <c r="C361" s="11"/>
@@ -5416,7 +5420,7 @@
       <c r="F361" s="13"/>
       <c r="G361" s="14"/>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="11"/>
       <c r="B362" s="11"/>
       <c r="C362" s="11"/>
@@ -5425,7 +5429,7 @@
       <c r="F362" s="13"/>
       <c r="G362" s="14"/>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="11"/>
       <c r="B363" s="11"/>
       <c r="C363" s="11"/>
@@ -5434,7 +5438,7 @@
       <c r="F363" s="13"/>
       <c r="G363" s="14"/>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="11"/>
       <c r="B364" s="11"/>
       <c r="C364" s="11"/>
@@ -5443,7 +5447,7 @@
       <c r="F364" s="13"/>
       <c r="G364" s="14"/>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="11"/>
       <c r="B365" s="11"/>
       <c r="C365" s="11"/>
@@ -5452,7 +5456,7 @@
       <c r="F365" s="13"/>
       <c r="G365" s="14"/>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="11"/>
       <c r="B366" s="11"/>
       <c r="C366" s="11"/>
@@ -5461,7 +5465,7 @@
       <c r="F366" s="13"/>
       <c r="G366" s="14"/>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="11"/>
       <c r="B367" s="11"/>
       <c r="C367" s="11"/>
@@ -5470,7 +5474,7 @@
       <c r="F367" s="13"/>
       <c r="G367" s="14"/>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="11"/>
       <c r="B368" s="11"/>
       <c r="C368" s="11"/>
@@ -5479,7 +5483,7 @@
       <c r="F368" s="13"/>
       <c r="G368" s="14"/>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="11"/>
       <c r="B369" s="11"/>
       <c r="C369" s="11"/>
@@ -5488,7 +5492,7 @@
       <c r="F369" s="13"/>
       <c r="G369" s="14"/>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="11"/>
       <c r="B370" s="11"/>
       <c r="C370" s="11"/>
@@ -5497,7 +5501,7 @@
       <c r="F370" s="13"/>
       <c r="G370" s="14"/>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="11"/>
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
@@ -5506,7 +5510,7 @@
       <c r="F371" s="13"/>
       <c r="G371" s="14"/>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="11"/>
       <c r="B372" s="11"/>
       <c r="C372" s="11"/>
@@ -5515,7 +5519,7 @@
       <c r="F372" s="13"/>
       <c r="G372" s="14"/>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="11"/>
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
@@ -5524,7 +5528,7 @@
       <c r="F373" s="13"/>
       <c r="G373" s="14"/>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="11"/>
       <c r="B374" s="11"/>
       <c r="C374" s="11"/>
@@ -5533,7 +5537,7 @@
       <c r="F374" s="13"/>
       <c r="G374" s="14"/>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="11"/>
       <c r="B375" s="11"/>
       <c r="C375" s="11"/>
@@ -5542,7 +5546,7 @@
       <c r="F375" s="13"/>
       <c r="G375" s="14"/>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="11"/>
       <c r="B376" s="11"/>
       <c r="C376" s="11"/>
@@ -5551,7 +5555,7 @@
       <c r="F376" s="13"/>
       <c r="G376" s="14"/>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="11"/>
       <c r="B377" s="11"/>
       <c r="C377" s="11"/>
@@ -5560,7 +5564,7 @@
       <c r="F377" s="13"/>
       <c r="G377" s="14"/>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="11"/>
       <c r="B378" s="11"/>
       <c r="C378" s="11"/>
@@ -5569,7 +5573,7 @@
       <c r="F378" s="13"/>
       <c r="G378" s="14"/>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="11"/>
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
@@ -5578,7 +5582,7 @@
       <c r="F379" s="13"/>
       <c r="G379" s="14"/>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="11"/>
       <c r="B380" s="11"/>
       <c r="C380" s="11"/>
@@ -5587,7 +5591,7 @@
       <c r="F380" s="13"/>
       <c r="G380" s="14"/>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="11"/>
       <c r="B381" s="11"/>
       <c r="C381" s="11"/>
@@ -5596,7 +5600,7 @@
       <c r="F381" s="13"/>
       <c r="G381" s="14"/>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="11"/>
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
@@ -5605,7 +5609,7 @@
       <c r="F382" s="13"/>
       <c r="G382" s="14"/>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="11"/>
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
@@ -5614,7 +5618,7 @@
       <c r="F383" s="13"/>
       <c r="G383" s="14"/>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="11"/>
       <c r="B384" s="11"/>
       <c r="C384" s="11"/>
@@ -5623,7 +5627,7 @@
       <c r="F384" s="13"/>
       <c r="G384" s="14"/>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="11"/>
       <c r="B385" s="11"/>
       <c r="C385" s="11"/>
@@ -5637,38 +5641,43 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:AMJ6 E7:AMJ7 A8:AMJ22 A23:C23 E23:AMJ23 A24:AMJ385">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>IF($F3&gt;0,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF($F3=0,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>IF($F6&gt;0,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>IF($F6=0,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>IF($F7&gt;0,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>IF($F7=0,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>IF($F31&gt;0,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>IF($F31=0,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>